--- a/output/onkologia/2018/sheets/year_2018.xlsx
+++ b/output/onkologia/2018/sheets/year_2018.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,159 +481,69 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>4.870967741935484</v>
+        <v>42</v>
       </c>
       <c r="C2" t="n">
-        <v>3.783870967741935</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>11.61785714285714</v>
+        <v>34.87979753988585</v>
       </c>
       <c r="C3" t="n">
-        <v>1.217857142857143</v>
+        <v>32.21412607130359</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>12.79677419354839</v>
+        <v>32.9</v>
       </c>
       <c r="C4" t="n">
-        <v>2.154838709677419</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>6.823333333333333</v>
+        <v>30.1</v>
       </c>
       <c r="C5" t="n">
-        <v>3.3</v>
+        <v>31.7</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>10.5741935483871</v>
+        <v>34.66408809363553</v>
       </c>
       <c r="C6" t="n">
-        <v>4.95483870967742</v>
+        <v>34.52350812023754</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>8.183333333333334</v>
+        <v>44.8</v>
       </c>
       <c r="C7" t="n">
-        <v>1.056666666666667</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6.832258064516129</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.241935483870968</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3.148387096774193</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.453333333333333</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7.303225806451612</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.409677419354839</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>15.21</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3.453333333333333</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7.916129032258064</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3.57741935483871</v>
+        <v>34.1</v>
       </c>
     </row>
   </sheetData>
